--- a/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 5 (37, 4, 45, 48, 20)/MDD 9 (4, 32, 48, 44, 31)/ANN_128nodes_Uniform0.05Virtual_Control(37, 4, 45, 48, 20)_MDD(4, 32, 48, 44, 31)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 5 (37, 4, 45, 48, 20)/MDD 9 (4, 32, 48, 44, 31)/ANN_128nodes_Uniform0.05Virtual_Control(37, 4, 45, 48, 20)_MDD(4, 32, 48, 44, 31)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
@@ -456,10 +456,10 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0.002631305254020819</v>
+        <v>0.0008834231581628185</v>
       </c>
       <c r="E2">
-        <v>0.002631305254020819</v>
+        <v>0.0008834231581628185</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.001190365380084013</v>
+        <v>0.00486079416036151</v>
       </c>
       <c r="E3">
-        <v>0.001190365380084013</v>
+        <v>0.00486079416036151</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>7.427338197178732E-14</v>
+        <v>3.78699826921037E-15</v>
       </c>
       <c r="E4">
-        <v>7.427338197178732E-14</v>
+        <v>3.78699826921037E-15</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>1.402078954963558E-17</v>
+        <v>3.789178724624225E-15</v>
       </c>
       <c r="E5">
-        <v>1.402078954963558E-17</v>
+        <v>3.789178724624225E-15</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>6.376702552392644E-05</v>
+        <v>1.543168793449495E-09</v>
       </c>
       <c r="E6">
-        <v>6.376702552392644E-05</v>
+        <v>1.543168793449495E-09</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -523,13 +523,13 @@
         <v>11</v>
       </c>
       <c r="C7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>0.006199166006361198</v>
+        <v>0.8082699960279633</v>
       </c>
       <c r="E7">
-        <v>0.9938008339936388</v>
+        <v>0.1917300039720367</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -537,13 +537,13 @@
         <v>12</v>
       </c>
       <c r="C8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>0.9736498333006959</v>
+        <v>0.1295353781629063</v>
       </c>
       <c r="E8">
-        <v>0.02635016669930412</v>
+        <v>0.8704646218370937</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -554,10 +554,10 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0.9999999999761455</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>2.385447395170104E-11</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -568,10 +568,10 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.06022422500876227</v>
+        <v>0.0002063266209142997</v>
       </c>
       <c r="E10">
-        <v>0.9397757749912378</v>
+        <v>0.9997936733790856</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -582,13 +582,13 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0.9999675548648813</v>
+        <v>0.9999893352282481</v>
       </c>
       <c r="E11">
-        <v>3.244513511868607E-05</v>
+        <v>1.06647717519337E-05</v>
       </c>
       <c r="F11">
-        <v>0.7923644781112671</v>
+        <v>1.07484757900238</v>
       </c>
       <c r="G11">
         <v>0.8</v>
